--- a/mrcOutput_words.xlsx
+++ b/mrcOutput_words.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="1561">
   <si>
     <t>MRC Psycholinguistic Database Output</t>
   </si>
@@ -2356,13 +2357,2359 @@
   </si>
   <si>
     <t>Web interface courtesy of UWA Psychology. CGI implementation by Craig Clark</t>
+  </si>
+  <si>
+    <t>UNIX : dict -s 1 1 -b 1 413 -c 258 618 -i 288 612 -B -F -C -I -W</t>
+  </si>
+  <si>
+    <t>WORD                     BFRQ CNC FAM IMG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACT                         8 379 566 433 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGE                        28 390 582 468 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIM                         1 324 549 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR                        14 518 608 450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALE                         1 578 454 526 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCH                        1 512 483 557 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARM                         3 592 608 593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ART                        13 440 529 493 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASH                         2 583 494 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATE                         4 385 562 364 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUNT                        6 564 554 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BABE                        1 562 370 562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BACK                      221 540 587 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAD                        64 308 592 388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG                        10 603 634 570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAIL                        1 441 485 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANG                        1 435 503 470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK                       20 573 573 560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAR                         3 565 592 596 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARE                        4 399 521 487 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE                        3 441 520 436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAT                         1 564 514 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATH                        3 600 599 601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTLE                      8 564 537 597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAY                         1 580 474 570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEAK                        1 552 476 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEAR                        9 585 526 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEER                       31 587 604 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEG                         7 300 529 431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEING                     173 276 568 323 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELT                        3 602 550 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEST                       55 282 600 324 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BET                         5 403 527 453 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIBLE                       3 585 496 594 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BILL                        7 528 552 535 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIRTH                       1 471 527 532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIT                       187 392 460 432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BITE                        1 509 593 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLACK                      12 470 603 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLEW                        5 367 533 404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLIND                       2 443 531 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOCK                       7 558 544 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLONDE                      1 502 563 608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLOW                        4 397 528 458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE                        7 459 593 569 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAR                        1 558 455 524 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOARD                      33 565 546 592 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAST                       1 295 491 416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOIL                        3 467 533 533 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOMB                        4 595 566 606 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BONE                        2 588 541 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOK                      108 609 643 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOTH                       1 556 444 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORE                        4 344 543 404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORN                        7 336 566 435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BORNE                       1 324 380 346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH                       70 322 598 298 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOW                         5 572 489 546 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOWL                        2 575 557 579 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOX                        15 597 599 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAIN                       7 556 580 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH                      6 583 529 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRAVE                       1 283 544 427 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREAK                      10 360 529 398 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BREATH                      1 479 572 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRIBE                       1 367 531 425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRICK                       2 610 529 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRIEF                       1 361 523 344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRIGHT                     15 473 589 489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROAD                       2 399 523 463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BROKE                       2 394 528 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUILD                       4 402 554 399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUMP                        3 525 541 476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNCH                       3 452 503 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURN                        3 490 548 541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSH                        3 585 532 549 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUY                        38 370 575 397 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL                       48 389 599 424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAME                      131 265 563 288 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMP                        3 571 541 588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARD                        3 565 543 578 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE                       18 342 563 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARP                        1 613 439 539 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CART                        1 576 454 597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASE                       41 548 553 517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASH                        1 547 592 588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAST                        3 502 495 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAUGHT                     12 340 550 401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELL                        1 542 520 590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENT                       20 544 473 518 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIN                       2 595 513 559 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAIR                      10 606 617 610 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHART                       1 532 533 531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIEF                       9 503 482 545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOIR                       4 567 526 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOOSE                      8 308 534 299 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHOP                        2 555 487 575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAIM                       4 331 525 321 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASH                       2 399 488 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAN                       2 392 610 454 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAR                      25 359 576 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSE                      18 391 587 420 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUB                        4 509 533 522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLUE                        2 380 533 375 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COACH                       1 561 509 560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAL                        3 584 513 581 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COARSE                      1 445 506 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAST                      10 562 541 588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COAT                        5 601 610 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCK                        3 611 434 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLD                       32 457 626 531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COME                      261 355 608 322 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOK                        1 502 568 504 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COOL                        1 364 567 429 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COPE                        9 347 516 344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORE                        4 459 459 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COST                       14 348 589 401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COUNT                       9 351 574 459 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURSE                    295 389 564 391 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURT                      14 509 549 552 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRANE                       2 606 428 562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRANK                       1 448 475 524 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRAWL                       1 408 519 488 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIME                       4 387 537 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROOK                       1 520 467 526 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROSS                      23 514 525 501 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROWD                       3 546 523 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CROWN                       5 586 531 602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUEL                       1 367 521 422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUSH                       1 381 480 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUBE                        2 530 502 575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUE                         1 532 420 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUP                         9 539 595 558 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURE                        3 352 526 397 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURVE                       2 447 521 520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUT                        34 430 581 460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYST                        9 570 335 510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANCE                       4 502 550 510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARE                        2 291 510 373 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DARK                       13 497 598 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE                       11 514 613 501 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAWN                        1 501 507 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAY                       113 477 595 526 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAD                        8 429 581 520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAL                       29 342 522 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAR                       51 326 536 374 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEATH                      15 365 581 498 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEBT                        2 416 494 384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEP                        6 400 542 498 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENSE                       1 353 524 461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESK                        7 583 583 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIE                         3 358 569 499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRT                        6 564 571 547 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISC                        2 553 466 575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIVE                        2 494 508 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOME                        2 517 504 557 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONE                      182 271 567 346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOOR                       25 606 630 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOT                         3 530 524 556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWN                      229 339 546 459 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAIN                       6 591 510 540 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRAW                       10 442 542 435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DREAD                       1 267 460 378 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DREAM                       3 386 553 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRESS                       1 595 588 595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRILL                       2 516 473 571 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRINK                      25 549 628 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROP                        9 320 577 417 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DROVE                       2 447 432 353 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRUG                        5 555 539 564 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUSK                        1 455 474 575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUST                        5 550 558 549 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EACH                       65 268 555 320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARL                        3 500 358 435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARN                        6 349 557 437 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EARTH                      14 580 580 580 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAST                       17 363 574 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAT                         9 486 529 563 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDGE                        5 465 569 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGG                         6 613 608 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIGHT                      38 368 613 501 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">END                       116 320 592 462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACE                       25 599 612 581 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACT                      193 332 593 302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL                        4 327 568 380 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAINT                       4 462 516 466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIR                       25 413 573 439 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALL                        7 409 572 547 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAN                         2 557 520 582 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAR                       101 302 587 411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARE                        5 413 482 384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM                        5 565 564 560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAST                       12 304 600 411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAT                         5 540 609 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAULT                       8 315 541 323 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEAR                        7 326 569 394 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEEL                      100 324 588 363 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELL                        3 407 546 431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELT                       36 437 504 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FENCE                       1 597 526 611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEW                        73 309 593 333 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIGHT                       8 455 561 543 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILE                        4 480 504 442 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILL                        7 372 521 415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILM                       45 604 578 562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIND                      145 351 580 370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINE                       49 328 560 392 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRM                       19 400 567 404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRST                     183 311 590 388 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIVE                      106 365 553 529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLESH                       2 597 483 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOAT                       1 451 553 525 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOCK                       1 477 434 516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOOD                       3 553 523 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOOR                       6 559 551 544 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOW                        1 311 518 417 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLY                         2 525 537 582 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOD                       12 597 579 539 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOL                        7 354 551 436 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOOT                       10 558 583 597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORCE                       4 331 552 437 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORE                        1 300 414 340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORK                        1 592 584 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORM                       25 438 553 452 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTH                      10 322 474 336 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOUL                        2 351 483 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOUR                      108 365 553 491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOURTH                     10 307 549 384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRAME                       1 562 494 508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANC                       1 479 388 426 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANK                       4 401 500 419 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRAUD                       2 304 447 381 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE                       26 328 607 397 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREEZE                      1 480 563 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREIGHT                     1 511 425 465 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIEND                     23 450 603 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRONT                      30 424 570 427 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROST                       1 608 546 595 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRUIT                       6 612 590 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL                        2 559 534 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL                       27 378 594 437 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUN                        18 295 621 515 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUR                         4 601 530 588 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAIN                        1 346 543 307 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAME                        9 477 574 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GANG                        1 492 515 535 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GAS                         2 554 558 532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATE                        3 573 540 545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEM                         1 573 457 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENTLE                      2 322 570 422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GHOST                      14 379 505 552 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIANT                       1 515 469 562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIFT                        7 533 566 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIVE                      102 326 595 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLAD                       14 318 564 445 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLIMPSE                     1 372 469 422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOD                        73 365 567 461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLD                        5 576 550 594 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GONE                       78 321 546 313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOD                      394 297 621 374 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRACE                       1 314 478 441 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRADE                       1 338 533 397 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPE                       1 611 532 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREAT                     110 311 588 390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN                       9 460 583 609 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIND                       2 441 486 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRIP                        1 490 523 540 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUND                     13 558 574 513 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUP                      17 451 553 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROW                        4 409 562 371 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROWN                       8 356 552 292 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUARD                       2 517 504 530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUEST                       1 519 560 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIDE                       2 468 524 482 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUY                        15 565 550 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIR                       11 583 575 580 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALF                       80 389 610 458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALL                        4 565 592 559 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HALT                        1 345 465 417 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAND                       42 604 601 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANG                        8 397 514 537 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARD                       32 425 595 460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAT                         3 601 580 562 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATE                        9 335 552 462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAD                       45 603 611 593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH                     10 372 577 432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAR                       34 394 602 425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEAT                        2 472 580 507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEIGHT                      1 376 590 472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELL                       29 355 564 519 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELP                       43 320 594 464 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER                       255 419 569 464 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDE                        2 451 515 430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIGH                       29 371 612 463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HILL                        1 588 585 607 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIM                       362 368 613 421 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HINT                        3 312 555 343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIS                       354 320 614 337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIVE                        1 583 386 554 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOG                         1 581 528 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLD                       18 416 596 416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME                       81 539 626 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOOK                        2 525 497 541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOP                         1 494 432 554 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOPE                       34 261 561 421 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORN                        1 618 498 566 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT                         7 507 607 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOUSE                      57 608 600 606 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOWL                        1 434 447 536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMP                        1 507 439 515 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUNT                        1 416 523 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HURT                        4 368 579 465 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INK                         1 608 542 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAIL                        1 590 539 608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAM                         1 563 529 569 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAW                         2 617 529 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOB                       119 432 578 470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOIN                        9 292 544 340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOKE                        6 388 580 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUDGE                       6 506 539 558 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEEN                       13 336 449 335 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEPT                       33 264 531 300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KICK                        3 485 563 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KID                        15 536 559 525 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KILL                        4 386 549 481 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIND                      150 323 575 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KING                        4 559 522 585 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNEE                        1 593 599 597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNIGHT                      4 579 505 608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACK                        4 311 532 302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAD                         3 548 490 534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAID                        3 350 507 493 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAND                        6 604 574 566 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAP                         1 540 505 531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARK                        2 578 436 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAST                      184 299 587 367 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LATE                       36 262 584 387 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAUGH                       6 433 594 528 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAW                        23 349 562 409 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEAD                        3 543 526 488 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEAN                        1 395 549 472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEAP                        1 389 539 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEARN                      18 370 552 361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEAST                      49 275 529 302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED                        16 370 526 394 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT                       82 341 592 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENGTH                      5 365 591 395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LENS                        3 573 519 556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIE                         1 357 548 385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFE                       43 361 598 482 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIFT                        7 461 555 482 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT                      12 550 575 542 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIME                        1 590 447 563 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINE                       36 477 591 491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK                        2 488 474 481 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINKS                       3 454 468 454 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LITTLE                    193 378 594 502 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIVE                       43 436 608 446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAD                        4 439 562 461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAN                        5 372 535 430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCK                        4 565 588 532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONE                        1 325 464 457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LONG                      135 381 579 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOOK                      156 376 607 395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSE                       17 299 534 373 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOSS                        3 313 558 409 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOUD                        3 413 577 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVE                       26 311 619 569 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOW                         7 322 580 378 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCK                        4 275 587 399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUMP                        1 542 501 546 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNCH                      28 552 616 602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNG                       10 569 546 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAD                        16 308 590 479 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADE                      100 327 579 351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIL                        1 508 554 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAIN                       32 324 574 309 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAKE                      147 299 618 322 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALE                        1 564 588 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAN                       138 618 623 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAP                        20 565 545 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCH                       6 440 539 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARK                       17 464 533 434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASS                        5 397 473 484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH                       6 535 558 490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATE                        2 507 553 506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAY                       157 332 576 370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEAL                        8 602 603 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEET                       30 341 575 438 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MELT                        2 413 521 461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEN                        29 586 621 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGHT                     143 271 533 346 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILD                        4 330 556 359 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MILE                        1 460 568 511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIND                       99 333 591 373 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINE                       30 452 557 522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISS                       19 372 586 447 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOLE                        1 590 484 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH                      28 345 598 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOON                        1 581 585 585 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORGUE                      1 572 434 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOST                      126 321 560 306 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE                        9 390 572 413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME                       53 405 573 475 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEAR                       24 337 582 408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEAT                        2 314 528 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEED                       59 314 589 327 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NERVE                       2 488 554 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET                         1 577 514 540 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW                       127 348 614 418 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEWS                        7 437 560 484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEXT                       89 262 548 386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NICE                      155 279 583 375 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGHT                      67 496 636 607 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NINE                       20 452 571 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOD                         1 437 552 508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE                       18 288 569 425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE                       12 525 594 503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOUN                        3 387 518 368 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF                       148 281 608 326 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIL                        10 581 548 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLD                       142 349 616 478 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONCE                       71 315 539 322 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNCE                       1 502 565 457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OWN                       118 317 598 337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAGE                       20 571 603 555 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAID                       27 386 577 429 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIN                        2 426 569 502 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAINT                      22 577 551 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIR                        7 377 544 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAN                         1 586 566 532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARK                        2 579 571 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PART                       84 339 579 340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS                       13 385 535 479 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAST                       39 293 545 446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASTE                       1 559 504 529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATCH                       2 558 528 529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAUSE                       1 306 517 347 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEACE                       7 309 571 446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEER                        1 406 460 376 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEN                         2 571 554 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET                         1 557 541 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHASE                       3 360 516 319 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHRASE                      4 321 521 342 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PICK                       18 502 524 513 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIECE                      12 384 511 395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILE                        1 504 521 513 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIN                         1 600 524 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINT                        3 483 536 487 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIPE                        5 602 535 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIT                         2 593 493 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLACE                     123 427 612 377 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAIN                       4 426 551 463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAN                        5 357 571 379 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANE                       4 535 558 556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLANT                       1 594 592 605 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATE                       2 595 556 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAY                       64 468 586 498 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLAYING                    10 379 582 464 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLOT                        1 379 515 420 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUG                        2 558 575 583 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUNGE                      1 396 441 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POINT                     141 464 538 481 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOL                        2 573 541 577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POOR                       19 311 548 447 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POPE                        5 593 489 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORT                        9 531 481 546 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST                       21 533 586 518 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POT                         1 584 577 598 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUND                       8 515 618 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POUR                        2 356 545 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRAISE                      2 354 502 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIDE                       2 270 564 424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIEST                      2 561 484 568 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIME                       3 360 492 386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROOF                       1 328 546 339 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROUD                       3 327 570 434 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PULL                       18 360 565 446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUMP                        1 556 497 556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURSE                       3 572 533 567 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUART                       2 504 568 545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUEEN                       2 537 527 612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK                       8 343 570 363 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RACE                        5 463 543 457 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID                        1 407 487 476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAISE                       5 340 534 418 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMP                        1 538 504 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGE                      13 417 515 413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPE                        1 472 555 565 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RARE                        9 327 559 439 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RATE                       17 308 527 311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAW                         1 399 509 470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REACH                       6 368 577 391 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">READ                      238 420 568 499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REAL                       27 285 596 313 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED                         9 501 607 585 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REEL                        2 502 456 487 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REIGN                       2 305 433 382 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REIN                        1 537 440 478 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENT                        4 437 547 469 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST                       42 351 590 396 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICE                        1 608 548 506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICH                        7 377 575 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHT                     372 361 599 372 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RING                       21 593 589 601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIPE                        2 360 534 490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISE                       11 368 546 451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISK                       14 290 517 405 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROAD                       34 583 604 609 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROCK                        2 600 583 612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLE                        1 335 524 385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOF                        1 586 552 604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOM                       89 566 627 545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROOT                        1 558 554 565 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUGH                       2 452 557 491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUND                     139 438 563 559 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUTE                       2 440 515 447 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULE                        8 286 534 415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNG                        5 532 423 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUSH                        6 350 546 404 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SACK                        5 582 539 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAD                         7 360 589 419 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFE                        2 376 531 474 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALT                        1 594 612 570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAND                        2 616 519 603 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAVE                        9 314 559 365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAW                        41 532 552 531 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCALE                      10 475 523 463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCARE                       1 380 523 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCENE                      21 408 526 432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHEME                     10 328 492 319 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCHOOL                     87 573 582 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCIENCE                    15 366 577 423 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCOTCH                      3 583 518 590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRATCH                     4 523 553 543 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCREAM                      1 479 522 589 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA                        13 596 537 606 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEARCH                      1 371 537 402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAT                        3 568 597 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEEN                       73 336 576 351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELF                        3 459 604 466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL                       18 342 585 397 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEND                       25 324 529 423 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENSE                      63 316 583 368 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENT                       20 292 523 386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEX                         8 512 617 584 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHALE                       1 458 359 401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAME                       7 287 534 419 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAPE                       9 452 575 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAWL                       1 606 455 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHED                        3 611 524 602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHEER                      10 397 468 440 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELL                       1 597 524 581 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIP                        3 615 553 612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIRT                       5 616 612 612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOCK                       3 395 560 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOOT                       5 445 536 494 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOP                       11 549 615 561 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHORT                      27 351 586 431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOT                        8 467 531 535 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOW                       27 402 559 424 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICK                        4 404 571 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIDE                       68 394 566 386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGH                        1 380 518 440 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGHT                      10 393 559 406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGN                       26 520 543 534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIMPLE                     13 306 604 344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN                         3 273 501 441 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SING                        2 421 576 527 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINK                        4 590 586 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIT                        39 437 581 487 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITE                        8 408 507 406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIZE                       12 354 566 415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKETCH                      2 535 452 510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKILL                       3 346 549 366 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLAP                        1 511 521 542 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEEP                       7 484 610 530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEEVE                      1 587 560 550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEIGH                      1 613 531 608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLEPT                       1 383 562 393 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLICE                       1 443 540 507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIDE                       2 504 529 490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIP                        4 448 537 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLOW                        4 293 602 377 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMACK                       3 451 511 601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMALL                      47 402 616 447 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMART                       2 304 602 396 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMELT                       1 475 444 473 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMOOTH                      3 406 570 472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNAIL                       1 579 489 577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOW                        2 618 615 597 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNUB                        1 280 386 348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOB                         2 425 516 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCK                        1 581 578 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOD                         2 569 433 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOFT                        5 414 590 476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLD                       11 310 544 408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLE                        2 484 473 462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SONG                        1 514 603 578 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SORE                        2 502 544 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUL                        7 289 544 366 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUND                      16 502 597 497 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUP                        2 615 576 604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUTH                      49 347 540 476 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPACE                       9 381 576 538 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPAN                        1 352 449 381 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPARE                       8 313 552 316 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEAK                      35 419 600 488 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEECH                     14 453 549 447 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPELL                      10 376 525 429 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPITE                       7 262 459 405 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPLIT                       4 417 514 445 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOKE                      13 526 532 466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPOT                       11 512 560 507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRING                      6 524 588 585 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUARE                      7 516 576 610 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUIRE                      1 502 323 459 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAFF                      53 515 577 478 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAIR                       1 558 560 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAKE                       1 540 460 506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STALK                       2 474 413 440 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAND                      29 450 564 471 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE                      11 440 560 511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAY                       38 329 573 321 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEAL                       2 363 562 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEAM                       1 552 545 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP                        4 508 578 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STICK                      17 604 528 517 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STILL                     130 354 557 345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOLE                       3 342 549 441 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STONE                       8 614 564 585 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP                       27 308 563 452 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORE                       2 548 562 506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORK                       1 614 393 570 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORM                       3 527 555 587 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOUT                       7 413 511 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAIGHT                   31 404 582 453 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAIN                      1 338 533 402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRAW                       1 603 508 568 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STREET                     34 579 602 577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRENGTH                    6 339 573 470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRIDE                      1 409 438 462 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRING                      3 570 566 556 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUMP                       2 540 447 490 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STYLE                      12 344 555 416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUEDE                       1 578 531 550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUIT                        3 545 543 536 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUM                         4 379 537 465 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEAT                       4 569 545 560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWEET                       7 463 570 493 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIFT                       1 338 507 460 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIM                        1 482 550 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACK                        2 565 463 546 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIL                        3 613 533 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKE                      152 332 555 337 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALE                        1 352 499 363 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALK                       73 422 613 453 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALL                        3 439 585 514 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAP                         2 538 567 541 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAPE                       11 564 567 573 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK                        3 409 514 410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASTE                      10 464 580 425 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAX                        23 445 523 446 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEA                        26 609 572 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEACH                      35 353 552 429 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAM                        3 492 538 565 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEAR                        1 504 555 550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEETH                       1 618 593 611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELL                      119 306 596 350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENSE                       2 365 531 422 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENT                        3 608 521 593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM                       39 374 575 387 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST                        6 520 566 528 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEXT                        9 498 511 437 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THEME                      11 336 524 395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THICK                       2 386 573 468 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THIN                        7 392 570 502 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOUGHT                   320 274 603 348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREAT                      1 335 524 408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREE                     252 439 581 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THREW                       4 333 557 421 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROAT                      2 578 548 561 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROUGH                   136 274 587 320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROW                       5 400 548 477 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">THYME                       1 587 336 470 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TICKLE                      1 473 524 492 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIE                         4 568 559 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIGHT                       5 425 555 495 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TILL                       40 365 442 364 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIN                         9 593 575 532 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIP                         1 459 493 483 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITLE                       6 384 523 413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOAD                        1 568 516 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOAST                       2 582 571 594 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOIL                        1 386 468 393 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TON                         3 473 501 475 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOOL                        2 570 532 538 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP                        27 435 571 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUCH                      17 417 590 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUGH                       8 404 534 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOWN                       14 556 589 553 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACE                       1 371 531 384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACK                       5 547 514 499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAIN                      15 592 548 593 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRASH                       4 588 541 599 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREAT                       8 399 534 360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TREND                       3 328 503 373 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIAL                       4 446 509 516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIP                        5 448 559 520 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE                       83 269 605 365 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUST                       4 300 548 356 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUTH                       7 261 581 374 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRY                        64 260 636 318 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUBE                        3 581 539 564 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUNE                        2 464 545 463 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURN                       26 359 583 384 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUSK                        5 580 433 538 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWIG                        1 559 493 555 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWIST                       3 423 510 529 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWO                       363 383 596 445 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TYPE                       34 376 567 395 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNCLE                       3 580 557 574 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">URN                         1 551 369 510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US                        151 397 618 428 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">USED                      123 315 567 344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAGUE                      11 272 522 321 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALE                        1 467 334 421 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAN                         1 606 542 572 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERB                        6 337 534 357 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERSE                       3 500 483 489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEST                        1 575 472 581 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VICE                        3 399 457 413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIEW                       43 379 523 430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOICE                      10 485 596 489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTE                        9 389 567 477 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIST                       1 563 540 530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAIT                       17 317 577 357 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALK                       19 452 625 505 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WALL                       13 589 596 576 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANT                      251 302 606 361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAR                        49 477 582 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARMTH                      2 397 560 551 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARN                        2 315 491 359 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASH                        6 447 632 522 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASTE                      13 430 577 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATCH                       7 487 576 525 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WATT                        1 350 436 370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAVE                        2 492 518 542 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WAY                       282 265 567 315 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAK                        2 351 562 414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEAR                       11 360 536 328 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEEK                       82 383 577 481 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEIGHT                      1 462 578 521 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEST                       12 355 563 426 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WET                         3 478 585 509 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE                      19 472 590 566 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHOLE                     136 324 592 377 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIDE                        7 348 569 455 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIFE                       22 562 585 575 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIGGLE                      2 409 388 491 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILD                       10 381 572 500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILL                      197 275 584 322 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIN                         3 364 582 454 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIND                        9 552 592 535 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIRE                        4 585 556 564 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISE                        6 268 533 412 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WISH                       19 270 556 399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOLF                        2 595 537 610 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOOD                        5 606 574 577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOOL                        1 608 540 586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORK                      192 402 603 458 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORLD                      53 532 607 560 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORM                        1 611 498 578 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORSE                      16 279 529 339 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRITE                      53 446 560 548 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WRONG                      51 303 600 344 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WROTE                      32 385 574 469 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YARD                        1 553 522 568 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YEAR                      203 364 601 428 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOUTH                       2 439 551 507 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2400,6 +4747,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2418,9 +4773,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2430,7 +4787,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6672,6 +9031,3953 @@
     <hyperlink ref="A1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A794"/>
+  <sheetViews>
+    <sheetView topLeftCell="A771" workbookViewId="0">
+      <selection sqref="A1:A794"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="4" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="4" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="4" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="4" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="4" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="4" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="4" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="4" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="4" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="4" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="4" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="4" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="4" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="4" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="4" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="4" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="4" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="4" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="4" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="4" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="4" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="4" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="4" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="4" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="4" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="4" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="4" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="4" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="4" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="4" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="4" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="4" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="4" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="4" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="4" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="4" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="4" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="4" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="4" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="4" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="4" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="4" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="4" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="4" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="4" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="4" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="4" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="4" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="4" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="4" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="4" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="4" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="4" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="4" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="4" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="4" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="4" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="4" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="4" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="4" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="4" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="4" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="4" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="4" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="4" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="4" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="4" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="4" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="4" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="4" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="4" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="4" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="4" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="4" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="4" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="4" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="4" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="4" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="4" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="4" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="4" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="4" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="4" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="4" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="4" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="4" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="4" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="4" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="4" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="4" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="4" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="4" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="4" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="4" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="4" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="4" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="4" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="4" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="4" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="4" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="4" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="4" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="4" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="4" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="4" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="4" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="4" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="4" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="4" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="4" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="4" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="4" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="4" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="4" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="4" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="4" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="4" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="4" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="4" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="4" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="4" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="4" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="4" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="4" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="4" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="4" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="4" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="4" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="4" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="4" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="4" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="4" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="4" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="4" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="4" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="4" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="4" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="4" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="4" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="4" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="4" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="4" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="4" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="4" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="4" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="4" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="4" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="4" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="4" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="4" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="4" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="4" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="4" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="4" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="4" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="4" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="4" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="4" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="4" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="4" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="4" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="4" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="4" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="4" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="4" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="4" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="4" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="4" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="4" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="4" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="4" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="4" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="4" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="4" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="4" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="4" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="4" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="4" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="4" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="4" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="4" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="4" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="4" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="4" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="4" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="4" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="4" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="4" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="4" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="4" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="4" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="4" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="4" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="4" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="4" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="4" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="4" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="4" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="4" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="4" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="4" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="4" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="4" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="4" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="4" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="4" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="4" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="4" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="4" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="4" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="4" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="4" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="4" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="4" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="4" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="4" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="4" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="4" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="4" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="4" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="4" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="4" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="4" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="4" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="4" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="4" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="4" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="4" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="4" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="4" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="4" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="4" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="4" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="4" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="4" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="4" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="4" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="4" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="4" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="4" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="4" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="4" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="4" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="4" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="4" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="4" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="4" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="4" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="4" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="4" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="4" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="4" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="4" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="4" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="4" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="4" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="4" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="4" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="4" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="4" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="4" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="4" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="4" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="4" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="4" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="4" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="4" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="4" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="4" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="4" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="4" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="4" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="4" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="4" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="4" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="4" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="4" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="4" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="4" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="4" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="4" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" s="4" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" s="4" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" s="4" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="4" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" s="4" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="4" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="4" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="4" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="4" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="4" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="4" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="4" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" s="4" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" s="4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" s="4" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" s="4" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652" s="4" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" s="4" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" s="4" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" s="4" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" s="4" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" s="4" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" s="4" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" s="4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="4" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" s="4" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" s="4" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" s="4" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664" s="4" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" s="4" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" s="4" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" s="4" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" s="4" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" s="4" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" s="4" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" s="4" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="4" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" s="4" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" s="4" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" s="4" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676" s="4" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677" s="4" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" s="4" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" s="4" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" s="4" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" s="4" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" s="4" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" s="4" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" s="4" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" s="4" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" s="4" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="4" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" s="4" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" s="4" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" s="4" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" s="4" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" s="4" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" s="4" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" s="4" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" s="4" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="4" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" s="4" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" s="4" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" s="4" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" s="4" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701" s="4" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" s="4" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" s="4" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" s="4" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" s="4" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" s="4" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" s="4" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="4" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" s="4" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="4" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" s="4" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" s="4" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714" s="4" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" s="4" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" s="4" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" s="4" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" s="4" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="4" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" s="4" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="4" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="4" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="4" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="4" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="4" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="4" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" s="4" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" s="4" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" s="4" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" s="4" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="4" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" s="4" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="4" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="4" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="4" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" s="4" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" s="4" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" s="4" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" s="4" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" s="4" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="4" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" s="4" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" s="4" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="4" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" s="4" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" s="4" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" s="4" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" s="4" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" s="4" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" s="4" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752" s="4" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="4" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" s="4" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" s="4" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="4" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" s="4" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" s="4" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764" s="4" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765" s="4" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="4" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767" s="4" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768" s="4" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769" s="4" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="4" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771" s="4" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" s="4" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773" s="4" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" s="4" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" s="4" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" s="4" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777" s="4" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" s="4" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="4" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="4" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="4" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="4" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784" s="4" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" s="4" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787" s="4" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" s="4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790" s="4" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" ht="18">
+      <c r="A793" s="5"/>
+    </row>
+    <row r="794" spans="1:1" ht="18">
+      <c r="A794" s="5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
